--- a/美国大学信息/Deadlines_2016 Fall.xlsx
+++ b/美国大学信息/Deadlines_2016 Fall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\n2zhang\Desktop\Deadlines_2016 Fall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAR8_3G\git\FLY_US\美国大学信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,43 +16,28 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
-  <si>
-    <t>Nov. 15 / Mar. 15</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>http://www.cs.columbia.edu/education/ms/appfaq</t>
   </si>
   <si>
-    <t>Feb. 15 Rolling</t>
-  </si>
-  <si>
     <t>http://www.seas.upenn.edu/prospective-students/graduate/admissions/index.php</t>
   </si>
   <si>
-    <t>Dec. 01</t>
-  </si>
-  <si>
     <t>http://www.ece.gatech.edu/academics/graduate/apply.html</t>
   </si>
   <si>
-    <t>Dec. 15</t>
-  </si>
-  <si>
     <t>http://www.ics.uci.edu/grad/admissions/Prospective_ApplicationProcess.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec. 15    </t>
-  </si>
-  <si>
-    <t>May. 01</t>
-  </si>
-  <si>
     <t>NCSU CS</t>
   </si>
   <si>
@@ -74,9 +59,6 @@
     <t>SUNY Buffalo CSE</t>
   </si>
   <si>
-    <t>Dec. 31</t>
-  </si>
-  <si>
     <t>http://www.cse.buffalo.edu/admissions/graduate/graduate_faq.php</t>
   </si>
   <si>
@@ -92,45 +74,30 @@
     <t>https://gapp.usc.edu/graduate-programs/masters/how-to-apply/deadlines</t>
   </si>
   <si>
-    <t>(Dec. 15) Jan. 15</t>
-  </si>
-  <si>
     <t>UCSB CS</t>
   </si>
   <si>
     <t>http://www.cs.ucsb.edu/education/grad/faqs</t>
   </si>
   <si>
-    <t>Jan. 10</t>
-  </si>
-  <si>
     <t>CMU Heinz MISM</t>
   </si>
   <si>
     <t>http://heinz.cmu.edu/school-of-information-systems-and-management/information-systems-management-mism/admission-requirements/index.aspx</t>
   </si>
   <si>
-    <t>(Dec. 03) Dec. 15</t>
-  </si>
-  <si>
     <t>http://lti.cs.cmu.edu/intranet/education/howtoapply</t>
   </si>
   <si>
     <t>http://www.ini.cmu.edu/degrees/psv_msit/details.html</t>
   </si>
   <si>
-    <t>Feb. 01</t>
-  </si>
-  <si>
     <t>CMU INI MSIT (P-SV)</t>
   </si>
   <si>
     <t>http://www.ebusiness.cs.cmu.edu/?p=1607</t>
   </si>
   <si>
-    <t>Dec. 14</t>
-  </si>
-  <si>
     <t>CMU MSIT eBiz</t>
   </si>
   <si>
@@ -140,9 +107,6 @@
     <t>http://www.ece.cmu.edu/programs-admissions/admissions/index.html</t>
   </si>
   <si>
-    <t>2016 Fall</t>
-  </si>
-  <si>
     <t>T100</t>
   </si>
   <si>
@@ -155,9 +119,6 @@
     <t>TAMU CS</t>
   </si>
   <si>
-    <t>(Jan. 01) Mar. 01</t>
-  </si>
-  <si>
     <t>http://engineering.tamu.edu/cse/academics/graduate-program/faq#status</t>
   </si>
   <si>
@@ -179,9 +140,6 @@
     <t>NWU EE</t>
   </si>
   <si>
-    <t>Apr. 20</t>
-  </si>
-  <si>
     <t>http://www.mccormick.northwestern.edu/eecs/academics/graduate/admissions.html#app</t>
   </si>
   <si>
@@ -194,9 +152,6 @@
     <t>Rice EE</t>
   </si>
   <si>
-    <t>Jan. 1st Tue</t>
-  </si>
-  <si>
     <t>http://www.ece.rice.edu/academics/admissions.aspx#MEE</t>
   </si>
   <si>
@@ -209,9 +164,6 @@
     <t>Umich ECE</t>
   </si>
   <si>
-    <t>Jan. 15</t>
-  </si>
-  <si>
     <t>http://www.ece.umich.edu/eecs/graduate/ece/faq-ece.html</t>
   </si>
   <si>
@@ -227,24 +179,15 @@
     <t>NYU Poly CS</t>
   </si>
   <si>
-    <t>Feb. 15</t>
-  </si>
-  <si>
     <t>http://engineering.nyu.edu/admissions/graduate/requirements</t>
   </si>
   <si>
     <t>WPI CS</t>
   </si>
   <si>
-    <t>Jan. 01</t>
-  </si>
-  <si>
     <t>https://www.wpi.edu/admissions/graduate/application-process.html</t>
   </si>
   <si>
-    <t>Jan. 03</t>
-  </si>
-  <si>
     <t>https://ga.soe.ucsc.edu/admissions</t>
   </si>
   <si>
@@ -254,18 +197,12 @@
     <t>http://www.networkedsystems.uci.edu/application.html</t>
   </si>
   <si>
-    <t>Gatech CSE</t>
-  </si>
-  <si>
     <t>http://www.cseprograms.gatech.edu/csems</t>
   </si>
   <si>
     <t>UMN CS</t>
   </si>
   <si>
-    <t>Apr. 05</t>
-  </si>
-  <si>
     <t>https://www.cs.umn.edu/admissions/graduate/cs_ms</t>
   </si>
   <si>
@@ -296,9 +233,6 @@
     <t>BU Computer/Electrical</t>
   </si>
   <si>
-    <t>(Jan. 15) Mar. 15</t>
-  </si>
-  <si>
     <t>http://www.bu.edu/eng/admissions/grad/apply/deadlines-and-credentials/</t>
   </si>
   <si>
@@ -311,13 +245,7 @@
     <t>UMN SE</t>
   </si>
   <si>
-    <t>Mar. 01 (Jul. 01)</t>
-  </si>
-  <si>
     <t>http://www.msse.umn.edu/how-to-apply</t>
-  </si>
-  <si>
-    <t>Feb. 15 (Apr. 15)</t>
   </si>
   <si>
     <t>UCSC CS/CE</t>
@@ -369,7 +297,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(Nov. 30, Jan. 15) Jan.31</t>
+    <t>Gatech CSE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,6 +361,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,639 +670,640 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F83"/>
+  <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="125.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
-        <v>39</v>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42339</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42339</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42339</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42339</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42339</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42353</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42353</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42369</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42369</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42369</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42370</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42370</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42372</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42379</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42384</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4">
+        <v>42384</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4">
+        <v>42384</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="E27" s="4">
+        <v>42384</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="4">
+        <v>42384</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="E29" s="4">
+        <v>42384</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42400</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42401</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42401</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42401</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42415</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="E35" s="4">
+        <v>42415</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42415</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="E37" s="4">
+        <v>42430</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
+        <v>72</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42430</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42444</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42444</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="E41" s="4">
+        <v>42465</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="4">
+        <v>42480</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42491</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42491</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42491</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" t="s">
         <v>66</v>
       </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F1">
+    <sortState ref="B2:F45">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F64" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
-    <hyperlink ref="F24" r:id="rId4"/>
-    <hyperlink ref="F22" r:id="rId5"/>
-    <hyperlink ref="F77" r:id="rId6"/>
-    <hyperlink ref="F43" r:id="rId7"/>
-    <hyperlink ref="F15" r:id="rId8"/>
-    <hyperlink ref="F58" r:id="rId9"/>
-    <hyperlink ref="F27" r:id="rId10"/>
-    <hyperlink ref="F38" r:id="rId11"/>
-    <hyperlink ref="F36" r:id="rId12"/>
-    <hyperlink ref="F39" r:id="rId13"/>
-    <hyperlink ref="F35" r:id="rId14"/>
-    <hyperlink ref="F37" r:id="rId15"/>
-    <hyperlink ref="F33" r:id="rId16"/>
-    <hyperlink ref="F68" r:id="rId17" location="status"/>
-    <hyperlink ref="F29" r:id="rId18"/>
-    <hyperlink ref="F73" r:id="rId19" location="app"/>
-    <hyperlink ref="F31" r:id="rId20"/>
-    <hyperlink ref="F52" r:id="rId21" location="MEE"/>
-    <hyperlink ref="F10" r:id="rId22" location="masters"/>
-    <hyperlink ref="F54" r:id="rId23"/>
-    <hyperlink ref="F75" r:id="rId24"/>
-    <hyperlink ref="F66" r:id="rId25"/>
-    <hyperlink ref="F48" r:id="rId26"/>
-    <hyperlink ref="F50" r:id="rId27"/>
-    <hyperlink ref="F25" r:id="rId28"/>
-    <hyperlink ref="F13" r:id="rId29"/>
-    <hyperlink ref="F20" r:id="rId30"/>
-    <hyperlink ref="F17" r:id="rId31"/>
-    <hyperlink ref="F45" r:id="rId32"/>
-    <hyperlink ref="F46" r:id="rId33"/>
-    <hyperlink ref="F71" r:id="rId34"/>
-    <hyperlink ref="F70" r:id="rId35"/>
-    <hyperlink ref="F18" r:id="rId36"/>
-    <hyperlink ref="F19" r:id="rId37"/>
-    <hyperlink ref="F6" r:id="rId38"/>
-    <hyperlink ref="F60" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F56" r:id="rId41"/>
-    <hyperlink ref="F62" r:id="rId42"/>
+    <hyperlink ref="F34" r:id="rId1"/>
+    <hyperlink ref="F39" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F43" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId8"/>
+    <hyperlink ref="F25" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F23" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F31" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId14"/>
+    <hyperlink ref="F12" r:id="rId15"/>
+    <hyperlink ref="F15" r:id="rId16"/>
+    <hyperlink ref="F37" r:id="rId17" location="status"/>
+    <hyperlink ref="F10" r:id="rId18"/>
+    <hyperlink ref="F42" r:id="rId19" location="app"/>
+    <hyperlink ref="F16" r:id="rId20"/>
+    <hyperlink ref="F20" r:id="rId21" location="MEE"/>
+    <hyperlink ref="F2" r:id="rId22" location="masters"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F44" r:id="rId24"/>
+    <hyperlink ref="F35" r:id="rId25"/>
+    <hyperlink ref="F21" r:id="rId26"/>
+    <hyperlink ref="F22" r:id="rId27"/>
+    <hyperlink ref="F28" r:id="rId28"/>
+    <hyperlink ref="F32" r:id="rId29"/>
+    <hyperlink ref="F41" r:id="rId30"/>
+    <hyperlink ref="F6" r:id="rId31"/>
+    <hyperlink ref="F17" r:id="rId32"/>
+    <hyperlink ref="F29" r:id="rId33"/>
+    <hyperlink ref="F45" r:id="rId34"/>
+    <hyperlink ref="F40" r:id="rId35"/>
+    <hyperlink ref="F36" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F5" r:id="rId38"/>
+    <hyperlink ref="F30" r:id="rId39"/>
+    <hyperlink ref="F11" r:id="rId40"/>
+    <hyperlink ref="F27" r:id="rId41"/>
+    <hyperlink ref="F33" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToWidth="5" orientation="portrait" r:id="rId43"/>
